--- a/cases_date/test_excel.xlsx
+++ b/cases_date/test_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowHeight="15640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,105 +29,198 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>模块名称</t>
+  </si>
+  <si>
+    <t>测试点</t>
+  </si>
+  <si>
+    <t>测试的项目</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>登陆</t>
+  </si>
+  <si>
+    <t>测试用例名称</t>
+  </si>
+  <si>
+    <t>操作步骤</t>
+  </si>
+  <si>
+    <t>URL/定位方法</t>
+  </si>
+  <si>
+    <t>定位Value</t>
+  </si>
+  <si>
+    <t>输入/断言内容</t>
+  </si>
+  <si>
+    <t>正确-登陆</t>
+  </si>
+  <si>
+    <t>打开_浏览器</t>
+  </si>
+  <si>
+    <t>打开_url_登录</t>
+  </si>
+  <si>
+    <t>https://adminplus.iviewui.com/</t>
+  </si>
+  <si>
+    <t>输入_用户名</t>
+  </si>
+  <si>
+    <t>By.XPATH</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/div[2]/div[2]/form/div[1]/div/div/div/input</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>输入_密码</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/div[2]/div[2]/form/div[2]/div/div/div/input</t>
+  </si>
+  <si>
+    <t>点击_登录按钮</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/div[2]/div[2]/form/div[4]/button</t>
+  </si>
+  <si>
+    <t>断言</t>
+  </si>
+  <si>
+    <t>登陆成功</t>
+  </si>
+  <si>
+    <t>失败-登陆</t>
+  </si>
+  <si>
+    <t>定义变量</t>
+  </si>
+  <si>
+    <t>变量注释</t>
+  </si>
   <si>
     <t>project_name</t>
   </si>
   <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>王亚辉的项目</t>
-  </si>
-  <si>
     <t>test_module</t>
   </si>
   <si>
     <t>测试一级目录模块</t>
   </si>
   <si>
-    <t>首页模块</t>
-  </si>
-  <si>
     <t>case_name</t>
   </si>
   <si>
-    <t>测试点</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
     <t>preconditions</t>
   </si>
   <si>
     <t>前置条件</t>
   </si>
   <si>
-    <t>打开_浏览器</t>
-  </si>
-  <si>
-    <t>step1</t>
-  </si>
-  <si>
-    <t>操作步骤1</t>
-  </si>
-  <si>
-    <t>打开_url_登录</t>
-  </si>
-  <si>
-    <t>https://adminplus.iviewui.com/</t>
-  </si>
-  <si>
-    <t>step2</t>
-  </si>
-  <si>
-    <t>操作步骤2</t>
-  </si>
-  <si>
-    <t>输入_用户名</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>By.XPATH</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/div[2]/div[2]/form/div[1]/div/div/div/input</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>step3</t>
-  </si>
-  <si>
-    <t>操作步骤3</t>
-  </si>
-  <si>
-    <t>输入_密码</t>
-  </si>
-  <si>
-    <t>user_pwd</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/div[2]/div[2]/form/div[2]/div/div/div/input</t>
-  </si>
-  <si>
-    <t>step4</t>
-  </si>
-  <si>
-    <t>操作步骤4</t>
-  </si>
-  <si>
-    <t>点击_登录按钮</t>
-  </si>
-  <si>
-    <t>Login_button</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div/div[2]/div[2]/form/div[4]/button</t>
+    <t>oepn_url</t>
+  </si>
+  <si>
+    <t>打开URL</t>
+  </si>
+  <si>
+    <t>input_txt</t>
+  </si>
+  <si>
+    <t>输入信息</t>
+  </si>
+  <si>
+    <t>get_text</t>
+  </si>
+  <si>
+    <t>获取内容</t>
+  </si>
+  <si>
+    <t>refresh</t>
+  </si>
+  <si>
+    <t>刷新页面</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>关闭当前窗口</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>返回上一页</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>返回下一页</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>获取当前页面标题</t>
+  </si>
+  <si>
+    <t>take_screenshot</t>
+  </si>
+  <si>
+    <t>截图当前界面</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>退出浏览器</t>
+  </si>
+  <si>
+    <t>accept_alert</t>
+  </si>
+  <si>
+    <t>提示框确定</t>
+  </si>
+  <si>
+    <t>dismiss_alert</t>
+  </si>
+  <si>
+    <t>提示框取消</t>
+  </si>
+  <si>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>鼠标悬停</t>
+  </si>
+  <si>
+    <t>get_current_url</t>
+  </si>
+  <si>
+    <t>获取当前页面URL</t>
   </si>
 </sst>
 </file>
@@ -293,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,54 +395,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -487,12 +586,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -619,7 +733,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,34 +745,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,87 +784,93 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,151 +1184,250 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.425" customWidth="1"/>
-    <col min="2" max="2" width="23.925" customWidth="1"/>
-    <col min="3" max="3" width="17.075" customWidth="1"/>
-    <col min="4" max="4" width="21.6416666666667" customWidth="1"/>
-    <col min="5" max="5" width="9.55833333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.425" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="15.1538461538462" customWidth="1"/>
+    <col min="2" max="2" width="16.3846153846154" customWidth="1"/>
+    <col min="3" max="3" width="32.6153846153846" customWidth="1"/>
+    <col min="4" max="4" width="66.7692307692308" customWidth="1"/>
+    <col min="5" max="5" width="21.2307692307692" customWidth="1"/>
+    <col min="6" max="6" width="30.8653846153846" customWidth="1"/>
+    <col min="7" max="7" width="13.8269230769231" customWidth="1"/>
+    <col min="8" max="8" width="14.4615384615385" customWidth="1"/>
+    <col min="9" max="9" width="12.9038461538462" customWidth="1"/>
+    <col min="10" max="10" width="11.4615384615385" customWidth="1"/>
+    <col min="11" max="11" width="13.7307692307692" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="https://adminplus.iviewui.com/" tooltip="https://adminplus.iviewui.com/"/>
+    <hyperlink ref="C6" r:id="rId1" display="https://adminplus.iviewui.com/" tooltip="https://adminplus.iviewui.com/"/>
+    <hyperlink ref="C12" r:id="rId1" display="https://adminplus.iviewui.com/" tooltip="https://adminplus.iviewui.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1219,14 +1438,179 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="19.3942307692308" customWidth="1"/>
+    <col min="2" max="2" width="22.2788461538462" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1242,7 +1626,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/cases_date/test_excel.xlsx
+++ b/cases_date/test_excel.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>项目名称</t>
   </si>
@@ -70,6 +70,9 @@
     <t>打开_浏览器</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>打开_url_登录</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
   </si>
   <si>
     <t>失败-登陆</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>定义变量</t>
@@ -1187,7 +1193,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1251,7 +1257,9 @@
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
@@ -1260,10 +1268,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
@@ -1273,16 +1281,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1290,16 +1298,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1307,13 +1315,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -1322,106 +1330,108 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1452,15 +1462,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1468,15 +1478,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1484,130 +1494,130 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/cases_date/test_excel.xlsx
+++ b/cases_date/test_excel.xlsx
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1451,7 +1451,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>

--- a/cases_date/test_excel.xlsx
+++ b/cases_date/test_excel.xlsx
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>

--- a/cases_date/test_excel.xlsx
+++ b/cases_date/test_excel.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>项目名称</t>
   </si>
@@ -106,13 +106,22 @@
     <t>断言</t>
   </si>
   <si>
-    <t>登陆成功</t>
+    <t>//*[@id="app"]/div/div[2]/div[1]/div/div[2]/div[1]/span/span[2]</t>
+  </si>
+  <si>
+    <t>Aresn</t>
   </si>
   <si>
     <t>失败-登陆</t>
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>/html/body/div[4]/div/div/div/div[1]/div/span</t>
+  </si>
+  <si>
+    <t>用户名或密码错误: /api/login</t>
   </si>
   <si>
     <t>定义变量</t>
@@ -1193,7 +1202,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1336,28 +1345,28 @@
         <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>14</v>
@@ -1370,7 +1379,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>16</v>
@@ -1387,7 +1396,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>20</v>
@@ -1398,13 +1407,13 @@
       <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
+      <c r="E14" s="3">
+        <v>66666</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>22</v>
@@ -1419,7 +1428,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>24</v>
@@ -1428,10 +1437,10 @@
         <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1462,15 +1471,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1478,15 +1487,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1494,130 +1503,130 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/cases_date/test_excel.xlsx
+++ b/cases_date/test_excel.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>项目名称</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Aresn</t>
+  </si>
+  <si>
+    <t>关闭浏览器</t>
   </si>
   <si>
     <t>失败-登陆</t>
@@ -1199,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1353,100 +1356,111 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3">
-        <v>66666</v>
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="E15" s="3">
+        <v>66666</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="https://adminplus.iviewui.com/" tooltip="https://adminplus.iviewui.com/"/>
-    <hyperlink ref="C12" r:id="rId1" display="https://adminplus.iviewui.com/" tooltip="https://adminplus.iviewui.com/"/>
+    <hyperlink ref="C13" r:id="rId1" display="https://adminplus.iviewui.com/" tooltip="https://adminplus.iviewui.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1471,15 +1485,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1487,15 +1501,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1503,130 +1517,130 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/cases_date/test_excel.xlsx
+++ b/cases_date/test_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15640"/>
+    <workbookView windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>项目名称</t>
   </si>
@@ -115,16 +115,16 @@
     <t>关闭浏览器</t>
   </si>
   <si>
-    <t>失败-登陆</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>/html/body/div[4]/div/div/div/div[1]/div/span</t>
-  </si>
-  <si>
-    <t>用户名或密码错误: /api/login</t>
+    <t>QQ-登陆</t>
+  </si>
+  <si>
+    <t>https://www.qq.com</t>
+  </si>
+  <si>
+    <t>百度-登陆</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com</t>
   </si>
   <si>
     <t>定义变量</t>
@@ -1202,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1370,97 +1370,30 @@
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="3">
-        <v>66666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" display="https://adminplus.iviewui.com/" tooltip="https://adminplus.iviewui.com/"/>
-    <hyperlink ref="C13" r:id="rId1" display="https://adminplus.iviewui.com/" tooltip="https://adminplus.iviewui.com/"/>
+    <hyperlink ref="C12" r:id="rId2" display="https://www.qq.com" tooltip="https://www.qq.com"/>
+    <hyperlink ref="C13" r:id="rId3" display="https://www.baidu.com" tooltip="https://www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/cases_date/test_excel.xlsx
+++ b/cases_date/test_excel.xlsx
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A1" sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>

--- a/cases_date/test_excel.xlsx
+++ b/cases_date/test_excel.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>项目名称</t>
   </si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t>正确-登陆</t>
-  </si>
-  <si>
-    <t>打开_浏览器</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>打开_url_登录</t>
@@ -1202,10 +1196,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1269,10 +1263,10 @@
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
@@ -1282,27 +1276,31 @@
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1313,14 +1311,12 @@
         <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
@@ -1330,70 +1326,55 @@
         <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="https://adminplus.iviewui.com/" tooltip="https://adminplus.iviewui.com/"/>
-    <hyperlink ref="C12" r:id="rId2" display="https://www.qq.com" tooltip="https://www.qq.com"/>
-    <hyperlink ref="C13" r:id="rId3" display="https://www.baidu.com" tooltip="https://www.baidu.com"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://adminplus.iviewui.com/" tooltip="https://adminplus.iviewui.com/"/>
+    <hyperlink ref="C11" r:id="rId2" display="https://www.qq.com" tooltip="https://www.qq.com"/>
+    <hyperlink ref="C12" r:id="rId3" display="https://www.baidu.com" tooltip="https://www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1418,15 +1399,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1434,15 +1415,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1450,130 +1431,130 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
